--- a/image/imagingstudy.xlsx
+++ b/image/imagingstudy.xlsx
@@ -1412,46 +1412,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.25" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.58203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.07421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="55.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="87.5234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="36.8671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="56.10546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.63671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="37.09765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="109.296875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="101.53125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="110.6171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="100.73828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="25.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/imagingstudy.xlsx
+++ b/image/imagingstudy.xlsx
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -781,7 +781,7 @@
     <t>ImagingStudy.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|Media|DiagnosticReport|DocumentReference)
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
 </t>
   </si>
   <si>
@@ -826,10 +826,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Institution-generated description</t>
   </si>
   <si>
@@ -907,6 +903,10 @@
   </si>
   <si>
     <t xml:space="preserve">SeriesInstanceUID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -1412,46 +1412,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.58203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.07421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="56.10546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="87.63671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="37.09765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="55.9140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.5234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="36.8671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="110.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="100.73828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="109.296875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="101.53125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="25.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4659,13 +4659,13 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4734,10 +4734,10 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4771,13 +4771,13 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4828,7 +4828,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4840,13 +4840,13 @@
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4883,13 +4883,13 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4940,7 +4940,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4958,7 +4958,7 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5001,7 +5001,7 @@
         <v>97</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>99</v>
@@ -5054,7 +5054,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5072,7 +5072,7 @@
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
@@ -5086,11 +5086,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5112,10 +5112,10 @@
         <v>96</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>99</v>
@@ -5170,7 +5170,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5202,11 +5202,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5225,7 +5225,7 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>53</v>
+        <v>284</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>285</v>
@@ -5286,7 +5286,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>51</v>
@@ -5565,7 +5565,7 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>306</v>
@@ -5640,7 +5640,7 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>309</v>
@@ -6353,7 +6353,7 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>346</v>
@@ -6426,7 +6426,7 @@
         <v>41</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>350</v>
@@ -6469,13 +6469,13 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6526,7 +6526,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6544,7 +6544,7 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -6587,7 +6587,7 @@
         <v>97</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>99</v>
@@ -6640,7 +6640,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6658,7 +6658,7 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6698,10 +6698,10 @@
         <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>99</v>
@@ -6756,7 +6756,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7037,7 +7037,7 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>368</v>
@@ -7106,7 +7106,7 @@
         <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>41</v>
@@ -7149,13 +7149,13 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7206,7 +7206,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7224,7 +7224,7 @@
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
@@ -7267,7 +7267,7 @@
         <v>97</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>99</v>
@@ -7320,7 +7320,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7338,7 +7338,7 @@
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
@@ -7356,7 +7356,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7378,10 +7378,10 @@
         <v>96</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>99</v>
@@ -7436,7 +7436,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7491,7 +7491,7 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>53</v>
+        <v>284</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>376</v>
@@ -7831,7 +7831,7 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>397</v>
